--- a/Code/Results/Cases/Case_4_207/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_207/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.484545810843258</v>
+        <v>1.607193756757511</v>
       </c>
       <c r="C2">
-        <v>0.7420527077190968</v>
+        <v>0.224866629977214</v>
       </c>
       <c r="D2">
-        <v>0.2017104504071199</v>
+        <v>0.07806988087429545</v>
       </c>
       <c r="E2">
-        <v>0.023511011319437</v>
+        <v>0.05847840465997844</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.562724104746081</v>
+        <v>1.385453889518089</v>
       </c>
       <c r="H2">
-        <v>0.8988513818721628</v>
+        <v>1.228819075792586</v>
       </c>
       <c r="I2">
-        <v>0.8138075726377423</v>
+        <v>1.106905566371644</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3611754016941546</v>
+        <v>0.2575035652529323</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.015241762134451</v>
+        <v>1.482022928510048</v>
       </c>
       <c r="C3">
-        <v>0.6449243194697658</v>
+        <v>0.1962453532894983</v>
       </c>
       <c r="D3">
-        <v>0.1740169719829225</v>
+        <v>0.0708611335141569</v>
       </c>
       <c r="E3">
-        <v>0.02375923091553656</v>
+        <v>0.05884300634309714</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.408418941585467</v>
+        <v>1.359119116830669</v>
       </c>
       <c r="H3">
-        <v>0.8367904267388155</v>
+        <v>1.223653090373375</v>
       </c>
       <c r="I3">
-        <v>0.7673246063561194</v>
+        <v>1.105316970415636</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3162771919234046</v>
+        <v>0.2472221148328515</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.730174752166022</v>
+        <v>1.405793804184327</v>
       </c>
       <c r="C4">
-        <v>0.5858465738845666</v>
+        <v>0.1786231537928131</v>
       </c>
       <c r="D4">
-        <v>0.1573125632997829</v>
+        <v>0.06647633230835481</v>
       </c>
       <c r="E4">
-        <v>0.02394202158349223</v>
+        <v>0.05908547284501253</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.318060441609077</v>
+        <v>1.344082219484989</v>
       </c>
       <c r="H4">
-        <v>0.8010284490024162</v>
+        <v>1.221276028625397</v>
       </c>
       <c r="I4">
-        <v>0.7412193306379606</v>
+        <v>1.10512194104713</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2892498774741625</v>
+        <v>0.2410625738949648</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.614661666666848</v>
+        <v>1.374887289893309</v>
       </c>
       <c r="C5">
-        <v>0.561884110581957</v>
+        <v>0.1714294769405456</v>
       </c>
       <c r="D5">
-        <v>0.1505703913317262</v>
+        <v>0.0646997463184249</v>
       </c>
       <c r="E5">
-        <v>0.02402390043540059</v>
+        <v>0.05918896008643504</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.282233461413341</v>
+        <v>1.338237315730339</v>
       </c>
       <c r="H5">
-        <v>0.7869941762337476</v>
+        <v>1.220506412326216</v>
       </c>
       <c r="I5">
-        <v>0.7311430699769943</v>
+        <v>1.105237715402048</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.27835600154053</v>
+        <v>0.2385909296116182</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.595516928937514</v>
+        <v>1.369764798536437</v>
       </c>
       <c r="C6">
-        <v>0.5579111524951657</v>
+        <v>0.1702342107012953</v>
       </c>
       <c r="D6">
-        <v>0.1494544999526397</v>
+        <v>0.06440536054627444</v>
       </c>
       <c r="E6">
-        <v>0.02403793573908164</v>
+        <v>0.0592064268284842</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.276341515174352</v>
+        <v>1.337283790651895</v>
       </c>
       <c r="H6">
-        <v>0.7846949580095384</v>
+        <v>1.220390616646114</v>
       </c>
       <c r="I6">
-        <v>0.7295024475465155</v>
+        <v>1.105268703635069</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2765538873726143</v>
+        <v>0.2381828315558749</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.728614408298654</v>
+        <v>1.405376350504184</v>
       </c>
       <c r="C7">
-        <v>0.5855229892879947</v>
+        <v>0.1785261882458826</v>
       </c>
       <c r="D7">
-        <v>0.1572213857934202</v>
+        <v>0.06645233132151418</v>
       </c>
       <c r="E7">
-        <v>0.02394309622475443</v>
+        <v>0.05908684955587695</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.317573374604109</v>
+        <v>1.344002250976899</v>
       </c>
       <c r="H7">
-        <v>0.8008370589239746</v>
+        <v>1.221264844445244</v>
       </c>
       <c r="I7">
-        <v>0.7410812276143091</v>
+        <v>1.105122713169919</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2891024931643642</v>
+        <v>0.2410290850512098</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.322011819998124</v>
+        <v>1.563904813376212</v>
       </c>
       <c r="C8">
-        <v>0.7084287447338511</v>
+        <v>0.2150079369851596</v>
       </c>
       <c r="D8">
-        <v>0.1920931001823334</v>
+        <v>0.07557561716375005</v>
       </c>
       <c r="E8">
-        <v>0.02359013530647047</v>
+        <v>0.05860026086777115</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.508541636266017</v>
+        <v>1.376137285944424</v>
       </c>
       <c r="H8">
-        <v>0.8769346988505333</v>
+        <v>1.226872367170358</v>
       </c>
       <c r="I8">
-        <v>0.7972430050409116</v>
+        <v>1.106195257003002</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3455723423927566</v>
+        <v>0.253926616804435</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.516326602224126</v>
+        <v>1.879767770628007</v>
       </c>
       <c r="C9">
-        <v>0.9553243121897594</v>
+        <v>0.2861782521521832</v>
       </c>
       <c r="D9">
-        <v>0.2633683736956556</v>
+        <v>0.09380275460173948</v>
       </c>
       <c r="E9">
-        <v>0.02315135186825845</v>
+        <v>0.05779350425069563</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.923217217160584</v>
+        <v>1.448241133163265</v>
       </c>
       <c r="H9">
-        <v>1.047271555018682</v>
+        <v>1.24421504258251</v>
       </c>
       <c r="I9">
-        <v>0.9292207933964605</v>
+        <v>1.114536299139303</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4613935124854294</v>
+        <v>0.2804428318673473</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.422180999184263</v>
+        <v>2.114929703103201</v>
       </c>
       <c r="C10">
-        <v>1.142572501246775</v>
+        <v>0.338268128475363</v>
       </c>
       <c r="D10">
-        <v>0.3183036797911996</v>
+        <v>0.1074116859867331</v>
       </c>
       <c r="E10">
-        <v>0.02300236086891161</v>
+        <v>0.05729048316799901</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.260804271110374</v>
+        <v>1.506900225563584</v>
       </c>
       <c r="H10">
-        <v>1.189216220878478</v>
+        <v>1.260883445033556</v>
       </c>
       <c r="I10">
-        <v>1.043434654815158</v>
+        <v>1.124533005274415</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5508321357211514</v>
+        <v>0.3006838464057466</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.842948417476407</v>
+        <v>2.222598029120149</v>
       </c>
       <c r="C11">
-        <v>1.229618652263184</v>
+        <v>0.3619281753240102</v>
       </c>
       <c r="D11">
-        <v>0.3440608243896293</v>
+        <v>0.1136527347793788</v>
       </c>
       <c r="E11">
-        <v>0.02297703160871123</v>
+        <v>0.05708108699837933</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.423707954232299</v>
+        <v>1.534851846630346</v>
       </c>
       <c r="H11">
-        <v>1.258453871465974</v>
+        <v>1.269331764279229</v>
       </c>
       <c r="I11">
-        <v>1.100154244041633</v>
+        <v>1.129935187191094</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5927840078796578</v>
+        <v>0.3100600054884808</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.003772183677142</v>
+        <v>2.263469412450888</v>
       </c>
       <c r="C12">
-        <v>1.262906276277249</v>
+        <v>0.3708828628603555</v>
       </c>
       <c r="D12">
-        <v>0.3539446148315903</v>
+        <v>0.1160234855130682</v>
       </c>
       <c r="E12">
-        <v>0.02297400278434747</v>
+        <v>0.05700458555810872</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.486948031920349</v>
+        <v>1.545621087219587</v>
       </c>
       <c r="H12">
-        <v>1.285441655457987</v>
+        <v>1.27265641065128</v>
       </c>
       <c r="I12">
-        <v>1.122415585504669</v>
+        <v>1.13210488564151</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6088828523593719</v>
+        <v>0.3136349359147061</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.969065569788995</v>
+        <v>2.254662589462896</v>
       </c>
       <c r="C13">
-        <v>1.255721739924411</v>
+        <v>0.3689545218383614</v>
       </c>
       <c r="D13">
-        <v>0.3518098319293159</v>
+        <v>0.1155125700146158</v>
       </c>
       <c r="E13">
-        <v>0.02297435529409331</v>
+        <v>0.05702093734932578</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.473255475132163</v>
+        <v>1.543293492539902</v>
       </c>
       <c r="H13">
-        <v>1.279593447964373</v>
+        <v>1.27193479381242</v>
       </c>
       <c r="I13">
-        <v>1.117584686657338</v>
+        <v>1.131632069075366</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6054056933704146</v>
+        <v>0.3128639236116868</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.85614817638168</v>
+        <v>2.225958542359763</v>
       </c>
       <c r="C14">
-        <v>1.232350375097496</v>
+        <v>0.3626649784599181</v>
       </c>
       <c r="D14">
-        <v>0.3448712388160828</v>
+        <v>0.1138476285534438</v>
       </c>
       <c r="E14">
-        <v>0.02297664806569522</v>
+        <v>0.05707473722601186</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.42887834535054</v>
+        <v>1.535734126097083</v>
       </c>
       <c r="H14">
-        <v>1.260658152043874</v>
+        <v>1.26960276521686</v>
       </c>
       <c r="I14">
-        <v>1.101969399878016</v>
+        <v>1.130111197844798</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5941040195852878</v>
+        <v>0.31035362755064</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.787184459813545</v>
+        <v>2.208389479164964</v>
       </c>
       <c r="C15">
-        <v>1.218078902842024</v>
+        <v>0.3588118279603236</v>
       </c>
       <c r="D15">
-        <v>0.3406387297804798</v>
+        <v>0.1128287727819242</v>
       </c>
       <c r="E15">
-        <v>0.02297892171094773</v>
+        <v>0.05710805479838132</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.401904899900785</v>
+        <v>1.53112790160219</v>
       </c>
       <c r="H15">
-        <v>1.249163016698219</v>
+        <v>1.268190696260348</v>
       </c>
       <c r="I15">
-        <v>1.092509669957607</v>
+        <v>1.129195803193355</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5872100780646576</v>
+        <v>0.3088191789853454</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.394877412931919</v>
+        <v>2.107907266822679</v>
       </c>
       <c r="C16">
-        <v>1.136926059191524</v>
+        <v>0.3367211921163573</v>
       </c>
       <c r="D16">
-        <v>0.3166374582770288</v>
+        <v>0.1070048450647931</v>
       </c>
       <c r="E16">
-        <v>0.02300490832154978</v>
+        <v>0.0573045585428158</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.250363252628858</v>
+        <v>1.505099221723952</v>
       </c>
       <c r="H16">
-        <v>1.184793355305231</v>
+        <v>1.260348830473419</v>
       </c>
       <c r="I16">
-        <v>1.039831820397268</v>
+        <v>1.124197252436616</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5481184762318918</v>
+        <v>0.3000744953108523</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.15659557337716</v>
+        <v>2.046442057662318</v>
       </c>
       <c r="C17">
-        <v>1.087657372492799</v>
+        <v>0.3231603208703575</v>
       </c>
       <c r="D17">
-        <v>0.3021231800936732</v>
+        <v>0.1034450524263377</v>
       </c>
       <c r="E17">
-        <v>0.02303203153739108</v>
+        <v>0.05743008261072369</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.159928627173599</v>
+        <v>1.489457710546105</v>
       </c>
       <c r="H17">
-        <v>1.146565500816905</v>
+        <v>1.255760522055482</v>
       </c>
       <c r="I17">
-        <v>1.008801307499496</v>
+        <v>1.121350485465655</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5244817733870946</v>
+        <v>0.2947531667661849</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.020344058638443</v>
+        <v>2.011154011647989</v>
       </c>
       <c r="C18">
-        <v>1.059491136893286</v>
+        <v>0.315357068653384</v>
       </c>
       <c r="D18">
-        <v>0.2938457947638824</v>
+        <v>0.1014022758559179</v>
       </c>
       <c r="E18">
-        <v>0.02305159692603631</v>
+        <v>0.05750410974111198</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.108777455282649</v>
+        <v>1.480580271476981</v>
       </c>
       <c r="H18">
-        <v>1.125010482986795</v>
+        <v>1.253202882157353</v>
       </c>
       <c r="I18">
-        <v>0.9913951314161409</v>
+        <v>1.119793475177701</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5110036624047893</v>
+        <v>0.2917083217611633</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.974342592144524</v>
+        <v>1.999217263584342</v>
       </c>
       <c r="C19">
-        <v>1.049982435567557</v>
+        <v>0.3127144288771149</v>
       </c>
       <c r="D19">
-        <v>0.2910548182672414</v>
+        <v>0.1007114326400966</v>
       </c>
       <c r="E19">
-        <v>0.02305888929830946</v>
+        <v>0.05752948824343296</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.091601068059788</v>
+        <v>1.47759491554649</v>
       </c>
       <c r="H19">
-        <v>1.117783853024747</v>
+        <v>1.252350866647078</v>
       </c>
       <c r="I19">
-        <v>0.9855747944780688</v>
+        <v>1.119280068839544</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5064594488618894</v>
+        <v>0.2906801055897006</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.181876458974273</v>
+        <v>2.052978393359012</v>
       </c>
       <c r="C20">
-        <v>1.092883939804892</v>
+        <v>0.3246042482492442</v>
       </c>
       <c r="D20">
-        <v>0.3036607821349975</v>
+        <v>0.103823508487352</v>
       </c>
       <c r="E20">
-        <v>0.0230287307312329</v>
+        <v>0.05741653107720524</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.169464650581546</v>
+        <v>1.491110428283605</v>
       </c>
       <c r="H20">
-        <v>1.150589477001574</v>
+        <v>1.256240520362468</v>
       </c>
       <c r="I20">
-        <v>1.012058170413439</v>
+        <v>1.121645202137202</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5269856129775405</v>
+        <v>0.2953179904694281</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.889272298443871</v>
+        <v>2.23438690829488</v>
       </c>
       <c r="C21">
-        <v>1.23920579500475</v>
+        <v>0.3645124992089563</v>
       </c>
       <c r="D21">
-        <v>0.3469055689941598</v>
+        <v>0.1143364599831358</v>
       </c>
       <c r="E21">
-        <v>0.02297579257039928</v>
+        <v>0.05705885912829878</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.441869048955112</v>
+        <v>1.537949467467428</v>
       </c>
       <c r="H21">
-        <v>1.266198189872085</v>
+        <v>1.2702843261917</v>
       </c>
       <c r="I21">
-        <v>1.106533894824011</v>
+        <v>1.130554540090969</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5974175620682161</v>
+        <v>0.3110902992932836</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.360406151867664</v>
+        <v>2.353529269854221</v>
       </c>
       <c r="C22">
-        <v>1.336763106127989</v>
+        <v>0.3905666756556911</v>
       </c>
       <c r="D22">
-        <v>0.3759381826464079</v>
+        <v>0.1212505012770606</v>
       </c>
       <c r="E22">
-        <v>0.02297970325667809</v>
+        <v>0.0568413749793244</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.629066229554184</v>
+        <v>1.569638386876051</v>
       </c>
       <c r="H22">
-        <v>1.346292996438024</v>
+        <v>1.280194439783401</v>
       </c>
       <c r="I22">
-        <v>1.172897853288802</v>
+        <v>1.137100651864785</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6447052258646409</v>
+        <v>0.3215406137447019</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.108059526397653</v>
+        <v>2.289887465070535</v>
       </c>
       <c r="C23">
-        <v>1.284497643861243</v>
+        <v>0.376663546349107</v>
       </c>
       <c r="D23">
-        <v>0.3603652322971556</v>
+        <v>0.1175563355721039</v>
       </c>
       <c r="E23">
-        <v>0.02297392556103972</v>
+        <v>0.05695596175197437</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.528239904228997</v>
+        <v>1.552626103037511</v>
       </c>
       <c r="H23">
-        <v>1.303093691932247</v>
+        <v>1.274837960027185</v>
       </c>
       <c r="I23">
-        <v>1.137019611402891</v>
+        <v>1.133540312478829</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6193407691877582</v>
+        <v>0.3159500177610681</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.170444683629057</v>
+        <v>2.05002316300363</v>
       </c>
       <c r="C24">
-        <v>1.090520517695751</v>
+        <v>0.3239514702789279</v>
       </c>
       <c r="D24">
-        <v>0.3029654248202576</v>
+        <v>0.1036523966928655</v>
       </c>
       <c r="E24">
-        <v>0.02303021068805222</v>
+        <v>0.05742265192667073</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.165150810674106</v>
+        <v>1.490362876340441</v>
       </c>
       <c r="H24">
-        <v>1.148768928032979</v>
+        <v>1.256023263271288</v>
       </c>
       <c r="I24">
-        <v>1.010584399107771</v>
+        <v>1.121511712772275</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.525853283788706</v>
+        <v>0.2950625886530105</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.189015993910687</v>
+        <v>1.793778750815306</v>
       </c>
       <c r="C25">
-        <v>0.8876851741651706</v>
+        <v>0.2669617032012184</v>
       </c>
       <c r="D25">
-        <v>0.2436991620242992</v>
+        <v>0.08883454536818647</v>
       </c>
       <c r="E25">
-        <v>0.02324109390907569</v>
+        <v>0.057995987551549</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.805922668947204</v>
+        <v>1.427747394510874</v>
       </c>
       <c r="H25">
-        <v>0.9985526394466717</v>
+        <v>1.23883802044864</v>
       </c>
       <c r="I25">
-        <v>0.8907997678214485</v>
+        <v>1.111605247845247</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4293963853295111</v>
+        <v>0.2731370802230941</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_207/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_207/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.607193756757511</v>
+        <v>3.484545810843258</v>
       </c>
       <c r="C2">
-        <v>0.224866629977214</v>
+        <v>0.7420527077192389</v>
       </c>
       <c r="D2">
-        <v>0.07806988087429545</v>
+        <v>0.2017104504069067</v>
       </c>
       <c r="E2">
-        <v>0.05847840465997844</v>
+        <v>0.02351101131942812</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.385453889518089</v>
+        <v>1.562724104746081</v>
       </c>
       <c r="H2">
-        <v>1.228819075792586</v>
+        <v>0.8988513818721628</v>
       </c>
       <c r="I2">
-        <v>1.106905566371644</v>
+        <v>0.8138075726377494</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2575035652529323</v>
+        <v>0.3611754016941831</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.482022928510048</v>
+        <v>3.015241762134622</v>
       </c>
       <c r="C3">
-        <v>0.1962453532894983</v>
+        <v>0.6449243194696521</v>
       </c>
       <c r="D3">
-        <v>0.0708611335141569</v>
+        <v>0.1740169719828373</v>
       </c>
       <c r="E3">
-        <v>0.05884300634309714</v>
+        <v>0.02375923091554721</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.359119116830669</v>
+        <v>1.408418941585438</v>
       </c>
       <c r="H3">
-        <v>1.223653090373375</v>
+        <v>0.8367904267387871</v>
       </c>
       <c r="I3">
-        <v>1.105316970415636</v>
+        <v>0.7673246063561123</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2472221148328515</v>
+        <v>0.3162771919233052</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.405793804184327</v>
+        <v>2.730174752166079</v>
       </c>
       <c r="C4">
-        <v>0.1786231537928131</v>
+        <v>0.5858465738847372</v>
       </c>
       <c r="D4">
-        <v>0.06647633230835481</v>
+        <v>0.1573125632997687</v>
       </c>
       <c r="E4">
-        <v>0.05908547284501253</v>
+        <v>0.02394202158348513</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.344082219484989</v>
+        <v>1.318060441609134</v>
       </c>
       <c r="H4">
-        <v>1.221276028625397</v>
+        <v>0.8010284490024162</v>
       </c>
       <c r="I4">
-        <v>1.10512194104713</v>
+        <v>0.7412193306379606</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2410625738949648</v>
+        <v>0.2892498774741341</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.374887289893309</v>
+        <v>2.614661666666905</v>
       </c>
       <c r="C5">
-        <v>0.1714294769405456</v>
+        <v>0.5618841105819286</v>
       </c>
       <c r="D5">
-        <v>0.0646997463184249</v>
+        <v>0.150570391331911</v>
       </c>
       <c r="E5">
-        <v>0.05918896008643504</v>
+        <v>0.02402390043539704</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.338237315730339</v>
+        <v>1.282233461413256</v>
       </c>
       <c r="H5">
-        <v>1.220506412326216</v>
+        <v>0.7869941762337191</v>
       </c>
       <c r="I5">
-        <v>1.105237715402048</v>
+        <v>0.7311430699770014</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2385909296116182</v>
+        <v>0.2783560015406294</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.369764798536437</v>
+        <v>2.595516928937343</v>
       </c>
       <c r="C6">
-        <v>0.1702342107012953</v>
+        <v>0.5579111524950235</v>
       </c>
       <c r="D6">
-        <v>0.06440536054627444</v>
+        <v>0.1494544999526397</v>
       </c>
       <c r="E6">
-        <v>0.0592064268284842</v>
+        <v>0.02403793573911273</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.337283790651895</v>
+        <v>1.276341515174323</v>
       </c>
       <c r="H6">
-        <v>1.220390616646114</v>
+        <v>0.7846949580095384</v>
       </c>
       <c r="I6">
-        <v>1.105268703635069</v>
+        <v>0.7295024475465297</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2381828315558749</v>
+        <v>0.2765538873725717</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.405376350504184</v>
+        <v>2.728614408298597</v>
       </c>
       <c r="C7">
-        <v>0.1785261882458826</v>
+        <v>0.58552298928808</v>
       </c>
       <c r="D7">
-        <v>0.06645233132151418</v>
+        <v>0.1572213857935338</v>
       </c>
       <c r="E7">
-        <v>0.05908684955587695</v>
+        <v>0.02394309622475532</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.344002250976899</v>
+        <v>1.317573374604251</v>
       </c>
       <c r="H7">
-        <v>1.221264844445244</v>
+        <v>0.8008370589239746</v>
       </c>
       <c r="I7">
-        <v>1.105122713169919</v>
+        <v>0.7410812276143233</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2410290850512098</v>
+        <v>0.2891024931642363</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.563904813376212</v>
+        <v>3.322011819998181</v>
       </c>
       <c r="C8">
-        <v>0.2150079369851596</v>
+        <v>0.7084287447338795</v>
       </c>
       <c r="D8">
-        <v>0.07557561716375005</v>
+        <v>0.1920931001820207</v>
       </c>
       <c r="E8">
-        <v>0.05860026086777115</v>
+        <v>0.02359013530643583</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.376137285944424</v>
+        <v>1.508541636265988</v>
       </c>
       <c r="H8">
-        <v>1.226872367170358</v>
+        <v>0.8769346988505333</v>
       </c>
       <c r="I8">
-        <v>1.106195257003002</v>
+        <v>0.7972430050409187</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.253926616804435</v>
+        <v>0.3455723423927139</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.879767770628007</v>
+        <v>4.516326602224183</v>
       </c>
       <c r="C9">
-        <v>0.2861782521521832</v>
+        <v>0.9553243121897026</v>
       </c>
       <c r="D9">
-        <v>0.09380275460173948</v>
+        <v>0.2633683736956414</v>
       </c>
       <c r="E9">
-        <v>0.05779350425069563</v>
+        <v>0.02315135186827533</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.448241133163265</v>
+        <v>1.923217217160499</v>
       </c>
       <c r="H9">
-        <v>1.24421504258251</v>
+        <v>1.047271555018682</v>
       </c>
       <c r="I9">
-        <v>1.114536299139303</v>
+        <v>0.9292207933964676</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2804428318673473</v>
+        <v>0.4613935124854294</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.114929703103201</v>
+        <v>5.422180999184434</v>
       </c>
       <c r="C10">
-        <v>0.338268128475363</v>
+        <v>1.142572501246804</v>
       </c>
       <c r="D10">
-        <v>0.1074116859867331</v>
+        <v>0.3183036797912138</v>
       </c>
       <c r="E10">
-        <v>0.05729048316799901</v>
+        <v>0.02300236086890362</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.506900225563584</v>
+        <v>2.260804271110402</v>
       </c>
       <c r="H10">
-        <v>1.260883445033556</v>
+        <v>1.18921622087845</v>
       </c>
       <c r="I10">
-        <v>1.124533005274415</v>
+        <v>1.043434654815172</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3006838464057466</v>
+        <v>0.5508321357211372</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.222598029120149</v>
+        <v>5.842948417476293</v>
       </c>
       <c r="C11">
-        <v>0.3619281753240102</v>
+        <v>1.229618652263184</v>
       </c>
       <c r="D11">
-        <v>0.1136527347793788</v>
+        <v>0.3440608243896008</v>
       </c>
       <c r="E11">
-        <v>0.05708108699837933</v>
+        <v>0.0229770316086757</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.534851846630346</v>
+        <v>2.423707954232356</v>
       </c>
       <c r="H11">
-        <v>1.269331764279229</v>
+        <v>1.258453871465974</v>
       </c>
       <c r="I11">
-        <v>1.129935187191094</v>
+        <v>1.100154244041661</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3100600054884808</v>
+        <v>0.5927840078796862</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.263469412450888</v>
+        <v>6.003772183677086</v>
       </c>
       <c r="C12">
-        <v>0.3708828628603555</v>
+        <v>1.262906276277306</v>
       </c>
       <c r="D12">
-        <v>0.1160234855130682</v>
+        <v>0.3539446148316898</v>
       </c>
       <c r="E12">
-        <v>0.05700458555810872</v>
+        <v>0.0229740027843679</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.545621087219587</v>
+        <v>2.486948031920292</v>
       </c>
       <c r="H12">
-        <v>1.27265641065128</v>
+        <v>1.285441655458158</v>
       </c>
       <c r="I12">
-        <v>1.13210488564151</v>
+        <v>1.122415585504655</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3136349359147061</v>
+        <v>0.6088828523594429</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.254662589462896</v>
+        <v>5.969065569788938</v>
       </c>
       <c r="C13">
-        <v>0.3689545218383614</v>
+        <v>1.255721739924297</v>
       </c>
       <c r="D13">
-        <v>0.1155125700146158</v>
+        <v>0.3518098319294438</v>
       </c>
       <c r="E13">
-        <v>0.05702093734932578</v>
+        <v>0.02297435529409686</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.543293492539902</v>
+        <v>2.473255475132191</v>
       </c>
       <c r="H13">
-        <v>1.27193479381242</v>
+        <v>1.279593447964487</v>
       </c>
       <c r="I13">
-        <v>1.131632069075366</v>
+        <v>1.117584686657366</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3128639236116868</v>
+        <v>0.6054056933702299</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.225958542359763</v>
+        <v>5.856148176381566</v>
       </c>
       <c r="C14">
-        <v>0.3626649784599181</v>
+        <v>1.232350375097269</v>
       </c>
       <c r="D14">
-        <v>0.1138476285534438</v>
+        <v>0.3448712388163386</v>
       </c>
       <c r="E14">
-        <v>0.05707473722601186</v>
+        <v>0.02297664806570054</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.535734126097083</v>
+        <v>2.428878345350512</v>
       </c>
       <c r="H14">
-        <v>1.26960276521686</v>
+        <v>1.260658152043987</v>
       </c>
       <c r="I14">
-        <v>1.130111197844798</v>
+        <v>1.101969399878016</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.31035362755064</v>
+        <v>0.5941040195853873</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.208389479164964</v>
+        <v>5.787184459813489</v>
       </c>
       <c r="C15">
-        <v>0.3588118279603236</v>
+        <v>1.218078902841739</v>
       </c>
       <c r="D15">
-        <v>0.1128287727819242</v>
+        <v>0.3406387297804372</v>
       </c>
       <c r="E15">
-        <v>0.05710805479838132</v>
+        <v>0.02297892171090687</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.53112790160219</v>
+        <v>2.401904899900842</v>
       </c>
       <c r="H15">
-        <v>1.268190696260348</v>
+        <v>1.249163016698191</v>
       </c>
       <c r="I15">
-        <v>1.129195803193355</v>
+        <v>1.092509669957607</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3088191789853454</v>
+        <v>0.5872100780647003</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.107907266822679</v>
+        <v>5.39487741293209</v>
       </c>
       <c r="C16">
-        <v>0.3367211921163573</v>
+        <v>1.136926059191495</v>
       </c>
       <c r="D16">
-        <v>0.1070048450647931</v>
+        <v>0.3166374582769862</v>
       </c>
       <c r="E16">
-        <v>0.0573045585428158</v>
+        <v>0.02300490832155955</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.505099221723952</v>
+        <v>2.250363252628858</v>
       </c>
       <c r="H16">
-        <v>1.260348830473419</v>
+        <v>1.184793355305118</v>
       </c>
       <c r="I16">
-        <v>1.124197252436616</v>
+        <v>1.039831820397268</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3000744953108523</v>
+        <v>0.5481184762318918</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.046442057662318</v>
+        <v>5.156595573377103</v>
       </c>
       <c r="C17">
-        <v>0.3231603208703575</v>
+        <v>1.087657372492743</v>
       </c>
       <c r="D17">
-        <v>0.1034450524263377</v>
+        <v>0.3021231800935453</v>
       </c>
       <c r="E17">
-        <v>0.05743008261072369</v>
+        <v>0.02303203153739908</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.489457710546105</v>
+        <v>2.159928627173656</v>
       </c>
       <c r="H17">
-        <v>1.255760522055482</v>
+        <v>1.146565500816877</v>
       </c>
       <c r="I17">
-        <v>1.121350485465655</v>
+        <v>1.008801307499482</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2947531667661849</v>
+        <v>0.5244817733871798</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.011154011647989</v>
+        <v>5.020344058638386</v>
       </c>
       <c r="C18">
-        <v>0.315357068653384</v>
+        <v>1.059491136893143</v>
       </c>
       <c r="D18">
-        <v>0.1014022758559179</v>
+        <v>0.2938457947637687</v>
       </c>
       <c r="E18">
-        <v>0.05750410974111198</v>
+        <v>0.02305159692601944</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.480580271476981</v>
+        <v>2.108777455282564</v>
       </c>
       <c r="H18">
-        <v>1.253202882157353</v>
+        <v>1.125010482986681</v>
       </c>
       <c r="I18">
-        <v>1.119793475177701</v>
+        <v>0.9913951314161551</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2917083217611633</v>
+        <v>0.5110036624047751</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.999217263584342</v>
+        <v>4.974342592144467</v>
       </c>
       <c r="C19">
-        <v>0.3127144288771149</v>
+        <v>1.049982435567756</v>
       </c>
       <c r="D19">
-        <v>0.1007114326400966</v>
+        <v>0.2910548182673551</v>
       </c>
       <c r="E19">
-        <v>0.05752948824343296</v>
+        <v>0.02305888929832278</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.47759491554649</v>
+        <v>2.091601068059731</v>
       </c>
       <c r="H19">
-        <v>1.252350866647078</v>
+        <v>1.117783853024719</v>
       </c>
       <c r="I19">
-        <v>1.119280068839544</v>
+        <v>0.985574794478083</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2906801055897006</v>
+        <v>0.5064594488618468</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.052978393359012</v>
+        <v>5.181876458974216</v>
       </c>
       <c r="C20">
-        <v>0.3246042482492442</v>
+        <v>1.092883939805205</v>
       </c>
       <c r="D20">
-        <v>0.103823508487352</v>
+        <v>0.3036607821351112</v>
       </c>
       <c r="E20">
-        <v>0.05741653107720524</v>
+        <v>0.02302873073124445</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.491110428283605</v>
+        <v>2.169464650581631</v>
       </c>
       <c r="H20">
-        <v>1.256240520362468</v>
+        <v>1.150589477001461</v>
       </c>
       <c r="I20">
-        <v>1.121645202137202</v>
+        <v>1.012058170413425</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2953179904694281</v>
+        <v>0.5269856129774979</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.23438690829488</v>
+        <v>5.889272298443927</v>
       </c>
       <c r="C21">
-        <v>0.3645124992089563</v>
+        <v>1.239205795004921</v>
       </c>
       <c r="D21">
-        <v>0.1143364599831358</v>
+        <v>0.3469055689945009</v>
       </c>
       <c r="E21">
-        <v>0.05705885912829878</v>
+        <v>0.02297579257042504</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.537949467467428</v>
+        <v>2.441869048955112</v>
       </c>
       <c r="H21">
-        <v>1.2702843261917</v>
+        <v>1.266198189872085</v>
       </c>
       <c r="I21">
-        <v>1.130554540090969</v>
+        <v>1.106533894824011</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3110902992932836</v>
+        <v>0.597417562068145</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.353529269854221</v>
+        <v>6.360406151867721</v>
       </c>
       <c r="C22">
-        <v>0.3905666756556911</v>
+        <v>1.336763106127989</v>
       </c>
       <c r="D22">
-        <v>0.1212505012770606</v>
+        <v>0.3759381826466637</v>
       </c>
       <c r="E22">
-        <v>0.0568413749793244</v>
+        <v>0.02297970325668075</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.569638386876051</v>
+        <v>2.629066229554098</v>
       </c>
       <c r="H22">
-        <v>1.280194439783401</v>
+        <v>1.346292996438081</v>
       </c>
       <c r="I22">
-        <v>1.137100651864785</v>
+        <v>1.172897853288788</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3215406137447019</v>
+        <v>0.6447052258646266</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.289887465070535</v>
+        <v>6.10805952639754</v>
       </c>
       <c r="C23">
-        <v>0.376663546349107</v>
+        <v>1.284497643861243</v>
       </c>
       <c r="D23">
-        <v>0.1175563355721039</v>
+        <v>0.3603652322971413</v>
       </c>
       <c r="E23">
-        <v>0.05695596175197437</v>
+        <v>0.02297392556103706</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.552626103037511</v>
+        <v>2.528239904228968</v>
       </c>
       <c r="H23">
-        <v>1.274837960027185</v>
+        <v>1.303093691932162</v>
       </c>
       <c r="I23">
-        <v>1.133540312478829</v>
+        <v>1.137019611402891</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3159500177610681</v>
+        <v>0.6193407691877297</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.05002316300363</v>
+        <v>5.170444683629057</v>
       </c>
       <c r="C24">
-        <v>0.3239514702789279</v>
+        <v>1.090520517695921</v>
       </c>
       <c r="D24">
-        <v>0.1036523966928655</v>
+        <v>0.3029654248201723</v>
       </c>
       <c r="E24">
-        <v>0.05742265192667073</v>
+        <v>0.02303021068806022</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.490362876340441</v>
+        <v>2.165150810674135</v>
       </c>
       <c r="H24">
-        <v>1.256023263271288</v>
+        <v>1.14876892803295</v>
       </c>
       <c r="I24">
-        <v>1.121511712772275</v>
+        <v>1.010584399107785</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2950625886530105</v>
+        <v>0.5258532837886492</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.793778750815306</v>
+        <v>4.189015993910516</v>
       </c>
       <c r="C25">
-        <v>0.2669617032012184</v>
+        <v>0.8876851741654548</v>
       </c>
       <c r="D25">
-        <v>0.08883454536818647</v>
+        <v>0.2436991620244129</v>
       </c>
       <c r="E25">
-        <v>0.057995987551549</v>
+        <v>0.02324109390904461</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.427747394510874</v>
+        <v>1.805922668947147</v>
       </c>
       <c r="H25">
-        <v>1.23883802044864</v>
+        <v>0.9985526394467001</v>
       </c>
       <c r="I25">
-        <v>1.111605247845247</v>
+        <v>0.8907997678214485</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2731370802230941</v>
+        <v>0.4293963853294542</v>
       </c>
       <c r="M25">
         <v>0</v>
